--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220524_110505.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220524_110505.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="259">
   <si>
     <t>사이트</t>
   </si>
@@ -718,7 +718,7 @@
     <t>해외</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>MBC</t>
@@ -791,9 +791,6 @@
   </si>
   <si>
     <t>AMBITION MUSIK</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1229,7 @@
         <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1258,7 +1255,7 @@
         <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1310,7 +1307,7 @@
         <v>226</v>
       </c>
       <c r="H6" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1362,7 +1359,7 @@
         <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1388,7 +1385,7 @@
         <v>229</v>
       </c>
       <c r="H9" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1414,7 +1411,7 @@
         <v>230</v>
       </c>
       <c r="H10" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1440,7 +1437,7 @@
         <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1518,7 +1515,7 @@
         <v>231</v>
       </c>
       <c r="H14" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1544,7 +1541,7 @@
         <v>232</v>
       </c>
       <c r="H15" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1570,7 +1567,7 @@
         <v>233</v>
       </c>
       <c r="H16" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1596,7 +1593,7 @@
         <v>234</v>
       </c>
       <c r="H17" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1622,7 +1619,7 @@
         <v>224</v>
       </c>
       <c r="H18" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1648,7 +1645,7 @@
         <v>235</v>
       </c>
       <c r="H19" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1674,7 +1671,7 @@
         <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1700,7 +1697,7 @@
         <v>237</v>
       </c>
       <c r="H21" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1726,7 +1723,7 @@
         <v>238</v>
       </c>
       <c r="H22" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1752,7 +1749,7 @@
         <v>239</v>
       </c>
       <c r="H23" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1804,7 +1801,7 @@
         <v>241</v>
       </c>
       <c r="H25" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1830,7 +1827,7 @@
         <v>241</v>
       </c>
       <c r="H26" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1882,7 +1879,7 @@
         <v>236</v>
       </c>
       <c r="H28" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1908,7 +1905,7 @@
         <v>224</v>
       </c>
       <c r="H29" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1960,7 +1957,7 @@
         <v>223</v>
       </c>
       <c r="H31" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1986,7 +1983,7 @@
         <v>241</v>
       </c>
       <c r="H32" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2012,7 +2009,7 @@
         <v>233</v>
       </c>
       <c r="H33" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2090,7 +2087,7 @@
         <v>232</v>
       </c>
       <c r="H36" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2116,7 +2113,7 @@
         <v>242</v>
       </c>
       <c r="H37" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2142,7 +2139,7 @@
         <v>226</v>
       </c>
       <c r="H38" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2168,7 +2165,7 @@
         <v>243</v>
       </c>
       <c r="H39" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2246,7 +2243,7 @@
         <v>233</v>
       </c>
       <c r="H42" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2272,7 +2269,7 @@
         <v>233</v>
       </c>
       <c r="H43" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2298,7 +2295,7 @@
         <v>229</v>
       </c>
       <c r="H44" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2324,7 +2321,7 @@
         <v>245</v>
       </c>
       <c r="H45" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2350,7 +2347,7 @@
         <v>236</v>
       </c>
       <c r="H46" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2376,7 +2373,7 @@
         <v>246</v>
       </c>
       <c r="H47" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2428,7 +2425,7 @@
         <v>235</v>
       </c>
       <c r="H49" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2480,7 +2477,7 @@
         <v>233</v>
       </c>
       <c r="H51" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2506,7 +2503,7 @@
         <v>247</v>
       </c>
       <c r="H52" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2532,7 +2529,7 @@
         <v>248</v>
       </c>
       <c r="H53" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2558,7 +2555,7 @@
         <v>249</v>
       </c>
       <c r="H54" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2610,7 +2607,7 @@
         <v>250</v>
       </c>
       <c r="H56" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2636,7 +2633,7 @@
         <v>223</v>
       </c>
       <c r="H57" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2662,7 +2659,7 @@
         <v>234</v>
       </c>
       <c r="H58" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2688,7 +2685,7 @@
         <v>251</v>
       </c>
       <c r="H59" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2714,7 +2711,7 @@
         <v>241</v>
       </c>
       <c r="H60" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2740,7 +2737,7 @@
         <v>241</v>
       </c>
       <c r="H61" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2766,7 +2763,7 @@
         <v>224</v>
       </c>
       <c r="H62" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2792,7 +2789,7 @@
         <v>241</v>
       </c>
       <c r="H63" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2818,7 +2815,7 @@
         <v>234</v>
       </c>
       <c r="H64" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2844,7 +2841,7 @@
         <v>234</v>
       </c>
       <c r="H65" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2896,7 +2893,7 @@
         <v>241</v>
       </c>
       <c r="H67" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2922,7 +2919,7 @@
         <v>243</v>
       </c>
       <c r="H68" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2948,7 +2945,7 @@
         <v>236</v>
       </c>
       <c r="H69" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2974,7 +2971,7 @@
         <v>233</v>
       </c>
       <c r="H70" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3000,7 +2997,7 @@
         <v>252</v>
       </c>
       <c r="H71" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3026,7 +3023,7 @@
         <v>253</v>
       </c>
       <c r="H72" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3052,7 +3049,7 @@
         <v>233</v>
       </c>
       <c r="H73" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3078,7 +3075,7 @@
         <v>235</v>
       </c>
       <c r="H74" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3104,7 +3101,7 @@
         <v>254</v>
       </c>
       <c r="H75" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3130,7 +3127,7 @@
         <v>234</v>
       </c>
       <c r="H76" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3260,7 +3257,7 @@
         <v>226</v>
       </c>
       <c r="H81" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3286,7 +3283,7 @@
         <v>243</v>
       </c>
       <c r="H82" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3312,7 +3309,7 @@
         <v>256</v>
       </c>
       <c r="H83" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3338,7 +3335,7 @@
         <v>234</v>
       </c>
       <c r="H84" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3364,7 +3361,7 @@
         <v>253</v>
       </c>
       <c r="H85" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3390,7 +3387,7 @@
         <v>249</v>
       </c>
       <c r="H86" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3416,7 +3413,7 @@
         <v>241</v>
       </c>
       <c r="H87" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3442,7 +3439,7 @@
         <v>224</v>
       </c>
       <c r="H88" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3468,7 +3465,7 @@
         <v>233</v>
       </c>
       <c r="H89" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3494,7 +3491,7 @@
         <v>234</v>
       </c>
       <c r="H90" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3572,7 +3569,7 @@
         <v>257</v>
       </c>
       <c r="H93" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3598,7 +3595,7 @@
         <v>224</v>
       </c>
       <c r="H94" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3624,7 +3621,7 @@
         <v>254</v>
       </c>
       <c r="H95" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3650,7 +3647,7 @@
         <v>233</v>
       </c>
       <c r="H96" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3676,7 +3673,7 @@
         <v>251</v>
       </c>
       <c r="H97" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3702,7 +3699,7 @@
         <v>226</v>
       </c>
       <c r="H98" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3754,7 +3751,7 @@
         <v>258</v>
       </c>
       <c r="H100" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:8">
